--- a/Planilha_teste/planilha_teste_unitario.xlsx
+++ b/Planilha_teste/planilha_teste_unitario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Teodoro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Teodoro\upDesk\Planilha_teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE93B56-B226-467E-BE3A-872CAE5620E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18804D-5F8E-42A0-AF71-3FC6E16B9B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>email: user@exemplo.com, senha: 123456</t>
   </si>
   <si>
-    <t>Login bem-sucedido</t>
-  </si>
-  <si>
     <t>Em desenvolvimento</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Planilha de teste UpDesk</t>
+  </si>
+  <si>
+    <t>Usuário redirecionado para o painel principal</t>
   </si>
 </sst>
 </file>
@@ -391,13 +391,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,87 +405,7 @@
     <cellStyle name="Neutro" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -528,11 +448,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -543,106 +463,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -948,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,76 +787,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1056,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>5</v>
@@ -1068,13 +888,13 @@
         <v>7</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.3">
@@ -1091,179 +911,179 @@
         <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="I11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
@@ -1274,7 +1094,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1287,7 +1107,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1300,7 +1120,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1313,7 +1133,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1326,7 +1146,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1339,7 +1159,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1352,7 +1172,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1365,7 +1185,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1378,7 +1198,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1391,7 +1211,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1404,7 +1224,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -1417,7 +1237,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1430,7 +1250,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -1443,7 +1263,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1456,7 +1276,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -1469,7 +1289,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1482,7 +1302,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -1495,7 +1315,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1508,7 +1328,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -1517,6 +1337,57 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I4"/>
   </mergeCells>
+  <conditionalFormatting sqref="F6:F30">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="40" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="41" operator="containsText" text="Média">
+      <formula>NOT(ISERROR(SEARCH("Média",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="42" operator="containsText" text="Baixa">
+      <formula>NOT(ISERROR(SEARCH("Baixa",F6)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G6">
     <cfRule type="iconSet" priority="17">
       <iconSet>
@@ -1537,26 +1408,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G30">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="Reprovado">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Reprovado">
       <formula>NOT(ISERROR(SEARCH("Reprovado",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Aprovado">
+    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Aprovado">
       <formula>NOT(ISERROR(SEARCH("Aprovado",G6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M5">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G30">
@@ -1578,49 +1437,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F30">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F30">
-    <cfRule type="containsText" dxfId="2" priority="40" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",F6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="41" operator="containsText" text="Média">
-      <formula>NOT(ISERROR(SEARCH("Média",F6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="42" operator="containsText" text="Baixa">
-      <formula>NOT(ISERROR(SEARCH("Baixa",F6)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="M3:M5">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Planilha_teste/planilha_teste_unitario.xlsx
+++ b/Planilha_teste/planilha_teste_unitario.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Teodoro\upDesk\Planilha_teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18804D-5F8E-42A0-AF71-3FC6E16B9B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69758973-7DE1-4D7A-A052-1DFB6CECE572}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -248,14 +248,13 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Impact"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +384,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,9 +473,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,9 +513,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,9 +548,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,9 +600,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -768,47 +795,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" customWidth="1"/>
-    <col min="5" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="4" max="4" width="57.5546875" customWidth="1"/>
+    <col min="5" max="6" width="32.6640625" customWidth="1"/>
     <col min="7" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
@@ -819,16 +846,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
@@ -839,16 +866,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+    <row r="4" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
@@ -859,7 +886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -897,7 +924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -931,7 +958,7 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -965,7 +992,7 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -999,7 +1026,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1057,7 +1084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
@@ -1086,7 +1113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1099,7 +1126,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1112,7 +1139,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1125,7 +1152,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1138,7 +1165,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1151,7 +1178,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1164,7 +1191,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1177,7 +1204,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1190,7 +1217,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1203,7 +1230,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1216,7 +1243,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1229,7 +1256,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1242,7 +1269,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1255,7 +1282,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1268,7 +1295,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1281,7 +1308,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1294,7 +1321,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1307,7 +1334,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1320,7 +1347,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1461,5 +1488,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>